--- a/public/sample_uploads/account_entries_with_dup.xlsx
+++ b/public/sample_uploads/account_entries_with_dup.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5C9626-2726-441F-8BC3-CA162E08AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,15 +48,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Investor name as recorded on CapHive is mandatory incase account entry pertains to a specific investor
+            <charset val="1"/>
+          </rPr>
+          <t>-Investor name as recorded on CapHive is mandatory incase account entry pertains to a specific investor
 -Leave blank incase account entry pertains to a fund / scheme</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,14 +73,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Mandatory: Fund name recorded on CapHive</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Mandatory: Fund name recorded on CapHive</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -94,15 +97,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Mandatory, needed for mapping to the appropriate folio.  
+            <charset val="1"/>
+          </rPr>
+          <t>Mandatory, needed for mapping to the appropriate folio.  
 If needed you may download the list of commiments which will give the Investor Name and Folio No.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,14 +122,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Mandatory in dd/mm/yyyy format</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Mandatory in dd/mm/yyyy format</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -145,15 +146,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Mandatory 
+            <charset val="1"/>
+          </rPr>
+          <t>-Mandatory 
 -Please use the existing nomenclature as shown by CapHive</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -171,15 +171,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Mandatory 
+            <charset val="1"/>
+          </rPr>
+          <t>-Mandatory 
 -Please use the existing nomenclature as shown by CapHive</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -197,15 +196,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Mandatory
+            <charset val="1"/>
+          </rPr>
+          <t>-Mandatory
 -Incase of a percentage - please put the exact value i.e. 0.06 for 6%</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -223,14 +221,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Optional</t>
+            <charset val="1"/>
+          </rPr>
+          <t>-Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -248,10 +245,9 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">-Mandatory
+            <charset val="1"/>
+          </rPr>
+          <t>-Mandatory
 -Please use the existing nomenclature as shown by CapHive</t>
         </r>
       </text>
@@ -261,113 +257,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Investor *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folio No *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporting Date *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entry Type *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investor 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAAS Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investable Capital Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investor 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management Fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investor 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accrued Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From FDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investor 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setup Fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investor 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investor 6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="28">
+  <si>
+    <t>Investor *</t>
+  </si>
+  <si>
+    <t>Fund *</t>
+  </si>
+  <si>
+    <t>Folio No *</t>
+  </si>
+  <si>
+    <t>Reporting Date *</t>
+  </si>
+  <si>
+    <t>Entry Type *</t>
+  </si>
+  <si>
+    <t>Name *</t>
+  </si>
+  <si>
+    <t>Amount *</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Investor 4</t>
+  </si>
+  <si>
+    <t>SAAS Fund</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Investable Capital Percentage</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Investor 1</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Management Fees</t>
+  </si>
+  <si>
+    <t>Investor 2</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Accrued Interest</t>
+  </si>
+  <si>
+    <t>From FDs</t>
+  </si>
+  <si>
+    <t>Investor 3</t>
+  </si>
+  <si>
+    <t>Setup Fees</t>
+  </si>
+  <si>
+    <t>Investor 5</t>
+  </si>
+  <si>
+    <t>Investor 6</t>
+  </si>
+  <si>
+    <t>Rule For</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Reporting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -389,7 +375,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -399,8 +385,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,128 +409,377 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="21"/>
-    <cellStyle name="Normal 4" xfId="22"/>
-    <cellStyle name="Normal 5" xfId="23"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.06"/>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" customWidth="1"/>
+    <col min="9" max="9" width="5.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,18 +807,21 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
         <v>45018</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -581,25 +830,28 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>0.06</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>44987</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -608,25 +860,28 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>1000</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>44987</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -635,7 +890,7 @@
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>2000</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -644,18 +899,21 @@
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>44987</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -664,25 +922,28 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>1000</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>45018</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -691,25 +952,28 @@
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>1000</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>45018</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -718,7 +982,7 @@
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>2000</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -727,18 +991,21 @@
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>45018</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -747,25 +1014,28 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>1000</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
         <v>45018</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -774,25 +1044,28 @@
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>1000</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>44987</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -801,25 +1074,28 @@
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>500</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>44987</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -828,25 +1104,28 @@
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>500</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>45018</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -855,25 +1134,28 @@
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>500</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>45018</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -882,25 +1164,28 @@
       <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>500</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="n">
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
         <v>45018</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -909,25 +1194,28 @@
       <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>500</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="3">
         <v>44987</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -936,25 +1224,28 @@
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>0.05</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="3">
         <v>44987</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -963,25 +1254,28 @@
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>0.06</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="3">
         <v>45018</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -990,25 +1284,28 @@
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>0.05</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>9</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="3">
         <v>45018</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1017,25 +1314,28 @@
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>0.06</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="C19" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3">
         <v>45018</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1044,25 +1344,28 @@
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="1">
         <v>0.06</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>12</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>45018</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1071,25 +1374,28 @@
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>0.06</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>44987</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1098,25 +1404,28 @@
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>0.06</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>8</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="3">
         <v>45018</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1125,25 +1434,28 @@
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="1">
         <v>0.05</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="4">
         <v>9</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="3">
         <v>45018</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1152,25 +1464,28 @@
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="1">
         <v>0.06</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="n">
+      <c r="C24" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3">
         <v>45018</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1179,25 +1494,28 @@
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="1">
         <v>0.06</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="4">
         <v>12</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="3">
         <v>45018</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1206,28 +1524,26 @@
       <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="1">
         <v>0.06</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J25" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I1025" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1025" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pool,All"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/account_entries_with_dup.xlsx
+++ b/public/sample_uploads/account_entries_with_dup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5C9626-2726-441F-8BC3-CA162E08AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C08D58-734E-47A1-8081-EDF5956FD89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="368" windowWidth="23985" windowHeight="14264" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -178,7 +179,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{53E80BD4-59B7-4EB7-A1DE-37E7973D0086}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-Incase of a percentage - please put the exact value i.e. 0.06 for 6%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -198,36 +224,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>-Mandatory
--Incase of a percentage - please put the exact value i.e. 0.06 for 6%</t>
+          <t>-Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>-Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="29">
   <si>
     <t>Investor *</t>
   </si>
@@ -277,9 +278,6 @@
     <t>Name *</t>
   </si>
   <si>
-    <t>Amount *</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -341,13 +339,19 @@
   </si>
   <si>
     <t>Reporting</t>
+  </si>
+  <si>
+    <t>Amount (Fund Currency)*</t>
+  </si>
+  <si>
+    <t>Amount (Folio Currency)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -399,6 +403,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,7 +450,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -442,6 +459,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J25"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -774,12 +792,13 @@
     <col min="4" max="4" width="15.265625" customWidth="1"/>
     <col min="5" max="5" width="11.53125" customWidth="1"/>
     <col min="6" max="6" width="25.19921875" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" customWidth="1"/>
-    <col min="9" max="9" width="5.06640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.53125" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" customWidth="1"/>
+    <col min="10" max="10" width="5.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,25 +817,28 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -825,28 +847,29 @@
         <v>45018</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0.06</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
@@ -855,28 +878,29 @@
         <v>44987</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>1000</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>7</v>
@@ -885,30 +909,31 @@
         <v>44987</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>2000</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -917,28 +942,29 @@
         <v>44987</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="1">
         <v>1000</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>8</v>
@@ -947,28 +973,29 @@
         <v>45018</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G6" s="1">
         <v>1000</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -977,30 +1004,31 @@
         <v>45018</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G7" s="1">
         <v>2000</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
@@ -1009,28 +1037,29 @@
         <v>45018</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G8" s="1">
         <v>1000</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
@@ -1039,28 +1068,29 @@
         <v>45018</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G9" s="1">
         <v>1000</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
@@ -1069,28 +1099,29 @@
         <v>44987</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
         <v>500</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>7</v>
@@ -1099,28 +1130,29 @@
         <v>44987</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>500</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4">
         <v>8</v>
@@ -1129,28 +1161,29 @@
         <v>45018</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1">
         <v>500</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
@@ -1159,28 +1192,29 @@
         <v>45018</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
         <v>500</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
@@ -1189,28 +1223,29 @@
         <v>45018</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>500</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4">
         <v>6</v>
@@ -1219,28 +1254,29 @@
         <v>44987</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G15" s="1">
         <v>0.05</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4">
         <v>7</v>
@@ -1249,28 +1285,29 @@
         <v>44987</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G16" s="1">
         <v>0.06</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4">
         <v>8</v>
@@ -1279,28 +1316,29 @@
         <v>45018</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G17" s="1">
         <v>0.05</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4">
         <v>9</v>
@@ -1309,28 +1347,29 @@
         <v>45018</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G18" s="1">
         <v>0.06</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4">
         <v>11</v>
@@ -1339,28 +1378,29 @@
         <v>45018</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G19" s="1">
         <v>0.06</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4">
         <v>12</v>
@@ -1369,28 +1409,29 @@
         <v>45018</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G20" s="1">
         <v>0.06</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1399,28 +1440,29 @@
         <v>44987</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G21" s="1">
         <v>0.06</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4">
         <v>8</v>
@@ -1429,28 +1471,29 @@
         <v>45018</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G22" s="1">
         <v>0.05</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4">
         <v>9</v>
@@ -1459,28 +1502,29 @@
         <v>45018</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G23" s="1">
         <v>0.06</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4">
         <v>11</v>
@@ -1489,28 +1533,29 @@
         <v>45018</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G24" s="1">
         <v>0.06</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4">
         <v>12</v>
@@ -1519,25 +1564,26 @@
         <v>45018</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G25" s="1">
         <v>0.06</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>26</v>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1025" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1025" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pool,All"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/public/sample_uploads/account_entries_with_dup.xlsx
+++ b/public/sample_uploads/account_entries_with_dup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C08D58-734E-47A1-8081-EDF5956FD89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD2DD54-4E3F-417B-804B-69B4EDAEAC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="368" windowWidth="23985" windowHeight="14264" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,37 +228,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>-Mandatory
--Please use the existing nomenclature as shown by CapHive</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
   <si>
     <t>Investor *</t>
   </si>
@@ -281,9 +256,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Investor 4</t>
   </si>
   <si>
@@ -294,9 +266,6 @@
   </si>
   <si>
     <t>Investable Capital Percentage</t>
-  </si>
-  <si>
-    <t>Pool</t>
   </si>
   <si>
     <t>Investor 1</t>
@@ -778,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -795,10 +764,9 @@
     <col min="7" max="7" width="23.53125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.53125" customWidth="1"/>
     <col min="9" max="9" width="8.86328125" customWidth="1"/>
-    <col min="10" max="10" width="5.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,27 +786,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -847,29 +812,26 @@
         <v>45018</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>0.06</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
@@ -878,29 +840,26 @@
         <v>44987</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>1000</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>7</v>
@@ -909,31 +868,28 @@
         <v>44987</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
         <v>2000</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>7</v>
@@ -942,60 +898,54 @@
         <v>44987</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1">
         <v>1000</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45018</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45018</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1">
         <v>1000</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -1004,62 +954,56 @@
         <v>45018</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
         <v>2000</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45018</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45018</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1">
         <v>1000</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
@@ -1068,29 +1012,26 @@
         <v>45018</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1">
         <v>1000</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
@@ -1099,29 +1040,26 @@
         <v>44987</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1">
         <v>500</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4">
         <v>7</v>
@@ -1130,29 +1068,26 @@
         <v>44987</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1">
         <v>500</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4">
         <v>8</v>
@@ -1161,29 +1096,26 @@
         <v>45018</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1">
         <v>500</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
@@ -1192,29 +1124,26 @@
         <v>45018</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1">
         <v>500</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
@@ -1223,29 +1152,26 @@
         <v>45018</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1">
         <v>500</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J14" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4">
         <v>6</v>
@@ -1254,29 +1180,26 @@
         <v>44987</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>0.05</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4">
         <v>7</v>
@@ -1285,29 +1208,26 @@
         <v>44987</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G16" s="1">
         <v>0.06</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4">
         <v>8</v>
@@ -1316,29 +1236,26 @@
         <v>45018</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G17" s="1">
         <v>0.05</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J17" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4">
         <v>9</v>
@@ -1347,29 +1264,26 @@
         <v>45018</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G18" s="1">
         <v>0.06</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4">
         <v>11</v>
@@ -1378,29 +1292,26 @@
         <v>45018</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G19" s="1">
         <v>0.06</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4">
         <v>12</v>
@@ -1409,29 +1320,26 @@
         <v>45018</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G20" s="1">
         <v>0.06</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J20" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1440,29 +1348,26 @@
         <v>44987</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G21" s="1">
         <v>0.06</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J21" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4">
         <v>8</v>
@@ -1471,29 +1376,26 @@
         <v>45018</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G22" s="1">
         <v>0.05</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J22" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4">
         <v>9</v>
@@ -1502,29 +1404,26 @@
         <v>45018</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G23" s="1">
         <v>0.06</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J23" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4">
         <v>11</v>
@@ -1533,29 +1432,26 @@
         <v>45018</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G24" s="1">
         <v>0.06</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4">
         <v>12</v>
@@ -1564,30 +1460,21 @@
         <v>45018</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G25" s="1">
         <v>0.06</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>25</v>
+      <c r="J25" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1025" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Pool,All"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>

--- a/public/sample_uploads/account_entries_with_dup.xlsx
+++ b/public/sample_uploads/account_entries_with_dup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD2DD54-4E3F-417B-804B-69B4EDAEAC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087F7501-0A34-4CC5-A3C2-84AEFD72CB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
   <si>
     <t>Investor *</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>Amount (Folio Currency)</t>
+  </si>
+  <si>
+    <t>Parent Type</t>
+  </si>
+  <si>
+    <t>Parent Id</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -766,7 +772,7 @@
     <col min="9" max="9" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,8 +803,14 @@
       <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,7 +838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -854,7 +866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -884,7 +896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -912,7 +924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -940,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -970,7 +982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
